--- a/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Mark Input Sheet ANL 2023.xlsx
+++ b/SuSS/2023_Sem2_ANL252_Python_4_Biz/0_PCT/Mark Input Sheet ANL 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL252_Python_4_Biz\0_PCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B04D7-B01E-47FA-BA7F-C26767562711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F54314-5F85-40A1-AA69-659E4463412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="105" windowWidth="16320" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="720" windowWidth="11940" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>Mark</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>lynetteyiew001</t>
+  </si>
+  <si>
+    <t>ISSAC CHRISTOPHER ONG WEN XUAN</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -729,6 +732,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -921,37 +928,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.24561403508771928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7543859649122806E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.22807017543859648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.7857142857142856E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,9 +3051,9 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B2" s="22">
+        <f>Student_Names_Sorted!E3</f>
+        <v>100</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="1"/>
@@ -3055,57 +3062,57 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B3" s="22">
+        <f>Student_Names_Sorted!E4</f>
+        <v>55.555555555555557</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="12">
         <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B4" s="22">
+        <f>Student_Names_Sorted!E5</f>
+        <v>60</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v/>
+        <v>65.002866643733512</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B5" s="22">
+        <f>Student_Names_Sorted!E6</f>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="str">
+      <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v/>
+        <v>23.255075488995718</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B6" s="22">
+        <f>Student_Names_Sorted!E7</f>
+        <v>40</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3117,9 +3124,9 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B7" s="22">
+        <f>Student_Names_Sorted!E8</f>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -3141,9 +3148,9 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B8" s="22">
+        <f>Student_Names_Sorted!E9</f>
+        <v>47.058823529411761</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -3157,18 +3164,18 @@
       <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v/>
+        <v>0.24561403508771928</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B9" s="22">
+        <f>Student_Names_Sorted!E10</f>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -3182,18 +3189,18 @@
       <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v/>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B10" s="22">
+        <f>Student_Names_Sorted!E11</f>
+        <v>88.888888888888886</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -3207,18 +3214,18 @@
       <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v/>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B11" s="22">
+        <f>Student_Names_Sorted!E12</f>
+        <v>47.058823529411761</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -3232,18 +3239,18 @@
       <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B12" s="22">
+        <f>Student_Names_Sorted!E13</f>
+        <v>88.888888888888886</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3257,18 +3264,18 @@
       <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B13" s="22">
+        <f>Student_Names_Sorted!E14</f>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3282,18 +3289,18 @@
       <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v/>
+        <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B14" s="22">
+        <f>Student_Names_Sorted!E15</f>
+        <v>70.588235294117652</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3307,18 +3314,18 @@
       <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
-        <v/>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B15" s="22">
+        <f>Student_Names_Sorted!E16</f>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3332,18 +3339,18 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v/>
+        <v>3.5087719298245612E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B16" s="22">
+        <f>Student_Names_Sorted!E17</f>
+        <v>88.888888888888886</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -3357,18 +3364,18 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
-        <v/>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B17" s="22">
+        <f>Student_Names_Sorted!E18</f>
+        <v>58.82352941176471</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3382,18 +3389,18 @@
       <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
-        <v/>
+        <v>0.22807017543859648</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B18" s="22">
+        <f>Student_Names_Sorted!E19</f>
+        <v>47.058823529411761</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3407,344 +3414,401 @@
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="17" t="str">
+      <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v/>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B19" s="22">
+        <f>Student_Names_Sorted!E20</f>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B20" s="22">
+        <f>Student_Names_Sorted!E21</f>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B21" s="22">
+        <f>Student_Names_Sorted!E22</f>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B22" s="22">
+        <f>Student_Names_Sorted!E23</f>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B23" s="22">
+        <f>Student_Names_Sorted!E24</f>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B24" s="22">
+        <f>Student_Names_Sorted!E25</f>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B25" s="22">
+        <f>Student_Names_Sorted!E26</f>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B26" s="22">
+        <f>Student_Names_Sorted!E27</f>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B27" s="22">
+        <f>Student_Names_Sorted!E28</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B28" s="22">
+        <f>Student_Names_Sorted!E29</f>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B29" s="22">
+        <f>Student_Names_Sorted!E30</f>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B30" s="22">
+        <f>Student_Names_Sorted!E31</f>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B31" s="22">
+        <f>Student_Names_Sorted!E32</f>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B32" s="22">
+        <f>Student_Names_Sorted!E33</f>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B33" s="22">
+        <f>Student_Names_Sorted!E34</f>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="B34" s="22">
+        <f>Student_Names_Sorted!E35</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B35" s="22">
+        <f>Student_Names_Sorted!E36</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B36" s="22">
+        <f>Student_Names_Sorted!E37</f>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B37" s="22">
+        <f>Student_Names_Sorted!E38</f>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B38" s="22">
+        <f>Student_Names_Sorted!E39</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B39" s="22">
+        <f>Student_Names_Sorted!E40</f>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="e">
-        <f>Student_Names_Sorted!#REF!</f>
-        <v>#REF!</v>
+      <c r="B40" s="22">
+        <f>Student_Names_Sorted!E41</f>
+        <v>47.058823529411761</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="22">
+        <f>Student_Names_Sorted!E42</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="22">
+        <f>Student_Names_Sorted!E43</f>
+        <v>47.058823529411761</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="22">
+        <f>Student_Names_Sorted!E44</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="22">
+        <f>Student_Names_Sorted!E45</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="22">
+        <f>Student_Names_Sorted!E46</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="22">
+        <f>Student_Names_Sorted!E47</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="22">
+        <f>Student_Names_Sorted!E48</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="22">
+        <f>Student_Names_Sorted!E49</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="22">
+        <f>Student_Names_Sorted!E50</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="22">
+        <f>Student_Names_Sorted!E51</f>
+        <v>47.058823529411761</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="22">
+        <f>Student_Names_Sorted!E52</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="22">
+        <f>Student_Names_Sorted!E53</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="22">
+        <f>Student_Names_Sorted!E54</f>
+        <v>55.555555555555557</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="22">
+        <f>Student_Names_Sorted!E55</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="22">
+        <f>Student_Names_Sorted!E56</f>
+        <v>82.35294117647058</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="22">
+        <f>Student_Names_Sorted!E57</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="22">
+        <f>Student_Names_Sorted!E58</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="22">
+        <f>Student_Names_Sorted!E59</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3757,7 +3821,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3771,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3825,28 +3889,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -3858,6 +3922,12 @@
       <c r="C3" s="20" t="s">
         <v>101</v>
       </c>
+      <c r="D3" s="20">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -3869,6 +3939,12 @@
       <c r="C4" s="20" t="s">
         <v>102</v>
       </c>
+      <c r="D4" s="20">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21">
+        <v>55.555555555555557</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -3880,6 +3956,12 @@
       <c r="C5" s="20" t="s">
         <v>103</v>
       </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3891,6 +3973,12 @@
       <c r="C6" s="20" t="s">
         <v>104</v>
       </c>
+      <c r="D6" s="20">
+        <v>5</v>
+      </c>
+      <c r="E6" s="21">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -3902,6 +3990,12 @@
       <c r="C7" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="D7" s="20">
+        <v>4</v>
+      </c>
+      <c r="E7" s="21">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -3913,6 +4007,12 @@
       <c r="C8" s="20" t="s">
         <v>106</v>
       </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -3924,6 +4024,12 @@
       <c r="C9" s="20" t="s">
         <v>107</v>
       </c>
+      <c r="D9" s="20">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21">
+        <v>47.058823529411761</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3935,6 +4041,12 @@
       <c r="C10" s="20" t="s">
         <v>108</v>
       </c>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="E10" s="21">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -3946,6 +4058,12 @@
       <c r="C11" s="20" t="s">
         <v>109</v>
       </c>
+      <c r="D11" s="20">
+        <v>9</v>
+      </c>
+      <c r="E11" s="21">
+        <v>88.888888888888886</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
@@ -3957,6 +4075,12 @@
       <c r="C12" s="20" t="s">
         <v>110</v>
       </c>
+      <c r="D12" s="20">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21">
+        <v>47.058823529411761</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -3968,6 +4092,12 @@
       <c r="C13" s="20" t="s">
         <v>111</v>
       </c>
+      <c r="D13" s="20">
+        <v>10</v>
+      </c>
+      <c r="E13" s="21">
+        <v>88.888888888888886</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -3979,6 +4109,12 @@
       <c r="C14" s="20" t="s">
         <v>112</v>
       </c>
+      <c r="D14" s="20">
+        <v>13</v>
+      </c>
+      <c r="E14" s="21">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
@@ -3990,6 +4126,12 @@
       <c r="C15" s="20" t="s">
         <v>113</v>
       </c>
+      <c r="D15" s="20">
+        <v>12</v>
+      </c>
+      <c r="E15" s="21">
+        <v>70.588235294117652</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
@@ -4001,8 +4143,14 @@
       <c r="C16" s="20" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>59</v>
       </c>
@@ -4012,8 +4160,14 @@
       <c r="C17" s="20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="20">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>60</v>
       </c>
@@ -4023,8 +4177,14 @@
       <c r="C18" s="20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="20">
+        <v>11</v>
+      </c>
+      <c r="E18" s="21">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>61</v>
       </c>
@@ -4034,8 +4194,14 @@
       <c r="C19" s="20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="20">
+        <v>12</v>
+      </c>
+      <c r="E19" s="21">
+        <v>47.058823529411761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>62</v>
       </c>
@@ -4045,427 +4211,675 @@
       <c r="C20" s="20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="20">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B22" s="20">
         <v>103589</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="D22" s="20">
+        <v>7</v>
+      </c>
+      <c r="E22" s="21">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B23" s="20">
         <v>65571</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="D23" s="20">
+        <v>14</v>
+      </c>
+      <c r="E23" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B24" s="20">
         <v>106674</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B25" s="20">
         <v>99999</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="D25" s="20">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B26" s="20">
         <v>108623</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="D26" s="20">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B27" s="20">
         <v>107858</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="D27" s="20">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B28" s="20">
         <v>108630</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="D28" s="20">
+        <v>10</v>
+      </c>
+      <c r="E28" s="21">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B29" s="20">
         <v>108317</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B30" s="20">
         <v>48564</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="D30" s="20">
+        <v>6</v>
+      </c>
+      <c r="E30" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B31" s="20">
         <v>76490</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="D31" s="20">
+        <v>10</v>
+      </c>
+      <c r="E31" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B32" s="20">
         <v>94023</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="D32" s="20">
+        <v>5</v>
+      </c>
+      <c r="E32" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B33" s="20">
         <v>83940</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="D33" s="20">
+        <v>8</v>
+      </c>
+      <c r="E33" s="21">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B34" s="20">
         <v>102118</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="D34" s="20">
+        <v>9</v>
+      </c>
+      <c r="E34" s="21">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B35" s="20">
         <v>94296</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="D35" s="20">
+        <v>7</v>
+      </c>
+      <c r="E35" s="21">
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B36" s="20">
         <v>86231</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="D36" s="20">
+        <v>14</v>
+      </c>
+      <c r="E36" s="21">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B37" s="20">
         <v>44071</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="D37" s="20">
+        <v>4</v>
+      </c>
+      <c r="E37" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B38" s="20">
         <v>107784</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="D38" s="20">
+        <v>13</v>
+      </c>
+      <c r="E38" s="21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B39" s="20">
         <v>107026</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="D39" s="20">
+        <v>14</v>
+      </c>
+      <c r="E39" s="21">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B40" s="20">
         <v>59913</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="D40" s="20">
+        <v>3</v>
+      </c>
+      <c r="E40" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B41" s="20">
         <v>99709</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="D41" s="20">
+        <v>10</v>
+      </c>
+      <c r="E41" s="21">
+        <v>47.058823529411761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B42" s="20">
         <v>16137</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="D42" s="20">
+        <v>2</v>
+      </c>
+      <c r="E42" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B43" s="20">
         <v>101349</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="D43" s="20">
+        <v>11</v>
+      </c>
+      <c r="E43" s="21">
+        <v>47.058823529411761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B44" s="20">
         <v>107089</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="D44" s="20">
+        <v>2</v>
+      </c>
+      <c r="E44" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B45" s="20">
         <v>99950</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="D45" s="20">
+        <v>8</v>
+      </c>
+      <c r="E45" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B46" s="20">
         <v>82413</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="D46" s="20">
+        <v>14</v>
+      </c>
+      <c r="E46" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B47" s="20">
         <v>100385</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="D47" s="20">
+        <v>3</v>
+      </c>
+      <c r="E47" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B48" s="20">
         <v>108097</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="D48" s="20">
+        <v>7</v>
+      </c>
+      <c r="E48" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B49" s="20">
         <v>67833</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="D49" s="20">
+        <v>5</v>
+      </c>
+      <c r="E49" s="21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B50" s="20">
         <v>93202</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="D50" s="20">
+        <v>2</v>
+      </c>
+      <c r="E50" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B51" s="20">
         <v>100483</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="D51" s="20">
+        <v>12</v>
+      </c>
+      <c r="E51" s="21">
+        <v>47.058823529411761</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B52" s="20">
         <v>61579</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="D52" s="20">
+        <v>8</v>
+      </c>
+      <c r="E52" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B53" s="20">
         <v>92768</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="D53" s="20">
+        <v>6</v>
+      </c>
+      <c r="E53" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B54" s="20">
         <v>68314</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="D54" s="20">
+        <v>6</v>
+      </c>
+      <c r="E54" s="21">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B55" s="20">
         <v>82835</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="D55" s="20">
+        <v>9</v>
+      </c>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B56" s="20">
         <v>68706</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="D56" s="20">
+        <v>11</v>
+      </c>
+      <c r="E56" s="21">
+        <v>82.35294117647058</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B57" s="20">
         <v>102193</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="D57" s="20">
+        <v>5</v>
+      </c>
+      <c r="E57" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B58" s="20">
         <v>101741</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="D58" s="20">
+        <v>6</v>
+      </c>
+      <c r="E58" s="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B59" s="20">
         <v>83848</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>156</v>
+      </c>
+      <c r="D59" s="20">
+        <v>14</v>
+      </c>
+      <c r="E59" s="21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E59">
+    <sortCondition ref="A3:A59"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
